--- a/similarities/split_global/harmonic_similarity_timestamps_272.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_272.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:03.700000', '0:01:06.700000')]</t>
+          <t>('0:00:56.760000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:30.520000', '0:00:40.640000')]</t>
+          <t>('0:00:06.840000', '0:00:26.340000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=56.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=30.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=6.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:02.320000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000')]</t>
+          <t>('0:00:43.076000', '0:00:50.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:02.252358', '0:00:05.805011')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=43.076</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_199</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C']]</t>
+          <t>['D', 'G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['F/3', 'Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:47.060000', '0:00:51.560000')]</t>
+          <t>('0:00:01.159256', '0:00:05.756807')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:01:03.461000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=47.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=1.159256</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:23.140000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:17.360000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:00:53.960000', '0:01:00.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=53.96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:49.440000', '0:03:58.320000'), ('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:00:16.341609', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=229.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:27.660000', '0:00:34.240000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:13.125602', '0:01:18.292043')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=27.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=73.125602']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_189</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['G', 'C', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:35.300702', '0:00:42.684648')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:12.880000', '0:00:18.522000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=35.300702</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=12.88</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['E:7', 'A', 'D']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.560000', '0:01:10.960000'), ('0:00:58.940000', '0:01:05.180000')]</t>
+          <t>('0:00:22.400000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:32.746870', '0:01:36.589773'), ('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=63.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=92.74687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:21.245000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:00:25.390000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_101</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:7', 'G:(3,5,b7,b9)/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:02:19.760000', '0:02:22.680000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:04.700000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=139.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=4.7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:7', 'B:7', 'E:7']]</t>
+          <t>['G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'F:7']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:41.100000', '0:00:44.830000')]</t>
+          <t>('0:00:51.641107', '0:00:57.139232')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.670000')]</t>
+          <t>('0:00:19.060000', '0:00:30.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=41.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
